--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\git\config_upgrade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA776C86-67FD-4763-A832-CA7132D64537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F022A9-73C3-431C-BF17-99A20D58402A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>事务</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -165,35 +165,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>礼包弹出功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-ini</t>
-  </si>
-  <si>
     <t>2-增加-行</t>
   </si>
   <si>
-    <t>ad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>today_reminder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-删除-行</t>
-  </si>
-  <si>
-    <t>global_war</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_player_cost_food</t>
-  </si>
-  <si>
-    <t>[default]100</t>
+    <t>1-csv</t>
+  </si>
+  <si>
+    <t>退出公会提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSVUTF8Strings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增utf8文字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[key]UI_GUILD_QUIT_SECOND_CONFIRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[copy]_Dev
+[sort]descend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,48 +288,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -625,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,9 +605,10 @@
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.25" customWidth="1"/>
-    <col min="6" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -670,75 +640,46 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
+    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Success"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Success"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3" xr:uid="{9258BC39-D998-449F-BC35-C2EDCA47145E}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2" xr:uid="{9258BC39-D998-449F-BC35-C2EDCA47145E}">
       <formula1>"1-csv,2-ini"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{A434F90B-F9A6-4209-B54F-6B7D04EE65F2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2" xr:uid="{A434F90B-F9A6-4209-B54F-6B7D04EE65F2}">
       <formula1>"1-增加-表,2-增加-行,3-增加-列,4-修改-字段类型,5-删除-列"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{70E65D42-C806-418C-AAB9-A19CA9491AA1}">
-      <formula1>"1-增加-表,2-增加-行,3-删除-行,4-增加-列,5-删除-列,6-修改-值,7-修改-列"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
